--- a/Dados/ativos_mapeados_para_controle.xlsx
+++ b/Dados/ativos_mapeados_para_controle.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,25 +482,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CDB MERCANTIL OUT25 (CDBA245P84B)</t>
+          <t>CDB3239C4TL</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45943</v>
+        <v>46223</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BRBMEBC018B3</t>
+          <t>BRBPACC0F3U7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -513,25 +513,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CDB MERCANTIL OUT25 (CDBA245P84C)</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45943</v>
+        <v>46454</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BRBMEBC018B3</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -544,25 +544,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CDB MERCANTIL OUT25 (CDBA245P84D)</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45943</v>
+        <v>46454</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MANACA INFRA FIRF</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BRBMEBC018B3</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -575,25 +575,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CDB MERCANTIL OUT25 (CDBA245P84E)</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45943</v>
+        <v>46454</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MANACA INFRA FIRF</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BRBMEBC018B3</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -606,25 +606,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CDB3239C4TL</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>46223</v>
+        <v>46454</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BRBPACC0F3U7</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -650,10 +650,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>TOPAZIO INFRA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BRAGBKC00M66</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -664,23 +668,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>PARANA BANCO S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>CDB3253PPYA</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>46454</v>
+        <v>46091</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>BH INFRA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BRPRBCC059P8</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -691,23 +699,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>PARANA BANCO S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>CDB3253PPYA</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>46454</v>
+        <v>46091</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>FIRF GERAES 30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BRPRBCC059P8</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -718,23 +730,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>PARANA BANCO S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>CDB3253PPYA</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>46454</v>
+        <v>46091</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TOPAZIO INFRA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>FIRF GERAES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BRPRBCC059P8</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -758,7 +774,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -766,7 +782,11 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>606488-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -789,7 +809,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -828,7 +848,11 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>606488-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -838,32 +862,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PARANA BANCO S.A.</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CDB3253PPYA</t>
+          <t>CDB424EERW3</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>46091</v>
+        <v>46146</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BRPRBCC059P8</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>606488-CDB</t>
-        </is>
-      </c>
+          <t>BRBVKWC00WA0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -873,28 +893,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PARANA BANCO S.A.</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CDB3253PPYA</t>
+          <t>CDB7257QUDF</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>46091</v>
+        <v>46213</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MANACA INFRA FIRF</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BRPRBCC059P8</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>BRBIDIC002H4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>613312-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -904,32 +928,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PARANA BANCO S.A.</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CDB3253PPYA</t>
+          <t>CDB7257QUDG</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>46091</v>
+        <v>46213</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BRPRBCC059P8</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>606488-CDB</t>
-        </is>
-      </c>
+          <t>BRBIDIC002H4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -939,25 +959,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CDB424EERW3</t>
+          <t>CDB7257QUDH</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>46146</v>
+        <v>46213</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>BRBVKWC00WA0</t>
+          <t>BRBIDIC002H4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -975,7 +995,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CDB7257QUDF</t>
+          <t>CDB7257QUDI</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -983,7 +1003,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -993,7 +1013,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>613312-CDB</t>
+          <t>613315-CDB</t>
         </is>
       </c>
     </row>
@@ -1005,25 +1025,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CDB7257QUDG</t>
+          <t>CDB925CDN0L</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>46213</v>
+        <v>46013</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BRBIDIC002H4</t>
+          <t>BRBVKWC01543</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1031,17 +1051,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CDB7257QUDH</t>
+          <t>HAPV21</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1049,30 +1069,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>BRBIDIC002H4</t>
-        </is>
-      </c>
+          <t>FIRF GERAES</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CDB7257QUDI</t>
+          <t>HAPV21</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -1080,100 +1096,100 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BRBIDIC002H4</t>
+          <t>BRHAPVDBS014</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>613315-CDB</t>
+          <t>362409-HAP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CDB725BEF4A</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45971</v>
+        <v>47196</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BRRANDC000L3</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>614520-CDB</t>
-        </is>
-      </c>
+          <t>BRKLBNDBS004</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CDB725BEF4B</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45941</v>
+        <v>47196</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>FIRF GERAES 30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BRKLBNDBS004</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CDB725BEF4B</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45971</v>
+        <v>47196</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1182,7 +1198,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BRRANDC000L3</t>
+          <t>BRKLBNDBS004</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1190,177 +1206,193 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CDB725BEF4C</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45941</v>
+        <v>47196</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>HORIZONTE FIM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BRKLBNDBS004</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CDB725BEF4C</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45971</v>
+        <v>47196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BRRANDC000L3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>BRKLBNDBS004</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>353017-KLB</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CDB725BEF4D</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45941</v>
+        <v>46083</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>BMG SEG</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BRBCXPLFIKS5</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CDB725BEF4D</t>
+          <t>LF0024007Y4</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45971</v>
+        <v>46097</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BRRANDC000L3</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
+          <t>BRBCXPLFIO68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CDB725BEF4E</t>
+          <t>LF0024008OB</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45941</v>
+        <v>46104</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>BMG SEG</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BRBCXPLFIO76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>614522-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BANCO RANDON</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CDB725BEF4E</t>
+          <t>LF0024008OB</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45971</v>
+        <v>46104</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BRRANDC000L3</t>
+          <t>BRBCXPLFIO76</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1368,30 +1400,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CDB9248TSCO</t>
+          <t>LF002400KBT</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45923</v>
+        <v>46234</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BRBVKWC00YI9</t>
+          <t>BRBMEBLFI8V4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1399,92 +1431,92 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CDB925CDN0L</t>
+          <t>LF002400KBU</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>46013</v>
+        <v>46234</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>FIRF GERAES</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HAPV21</t>
+          <t>LF002400KBW</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>46213</v>
+        <v>46234</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BRHAPVDBS014</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>362409-HAP</t>
-        </is>
-      </c>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>LF002400KBX</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>47196</v>
+        <v>46234</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
+          <t>BRBMEBLFI8V4</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1492,21 +1524,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>LF002400KBY</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>47196</v>
+        <v>46234</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1515,7 +1547,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
+          <t>BRBMEBLFI8V4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1523,212 +1555,224 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>LF002400KC0</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>47196</v>
+        <v>46234</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>567797-LF0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>LF002400KC1</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>47196</v>
+        <v>46234</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>567798-LF0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>LF002400KC2</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>47196</v>
+        <v>46234</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>TOPAZIO INFRA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>353017-KLB</t>
-        </is>
-      </c>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LF0024007Y4</t>
+          <t>LFSC19003FD</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>46097</v>
+        <v>45582</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>FIRF GERAES</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BRABCBLFN7I2</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LF0024008OB</t>
+          <t>LFSC19003W3</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>46104</v>
+        <v>45582</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
+          <t>HORIZONTE FIM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BRABCBLFN7I2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LF0024008OB</t>
+          <t>LFSC19003W4</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>46104</v>
+        <v>45582</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>FIRF GERAES 30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BRABCBLFN7I2</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LF002400KBT</t>
+          <t>LFSC190054C</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>46234</v>
+        <v>45454</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBNBRLFI013</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1736,30 +1780,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LF002400KBU</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>46234</v>
+        <v>45454</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1767,21 +1811,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LF002400KBW</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>46234</v>
+        <v>45454</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1790,7 +1834,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1798,30 +1842,30 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LF002400KBX</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>46234</v>
+        <v>45454</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MANACA INFRA FIRF</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1829,30 +1873,30 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LF002400KBY</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>46234</v>
+        <v>45454</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1860,100 +1904,92 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LF002400KC0</t>
+          <t>LFSC190054I</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>46234</v>
+        <v>45455</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>567797-LF0</t>
-        </is>
-      </c>
+          <t>BRBNBRLFI039</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LF002400KC1</t>
+          <t>LFSC190054I</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>46234</v>
+        <v>45455</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>567798-LF0</t>
-        </is>
-      </c>
+          <t>BRBNBRLFI039</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LF002400KC2</t>
+          <t>LFSC190059S</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>46234</v>
+        <v>45455</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TOPAZIO INFRA</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBNBRLFI062</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1966,25 +2002,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LFSC19003FD</t>
+          <t>LFSC19005FF</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45582</v>
+        <v>45461</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BRZYTZLFISX8</t>
+          <t>BRBNBRLFI0C5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1997,25 +2033,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LFSC19003W3</t>
+          <t>LFSC19005FF</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45582</v>
+        <v>45461</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BRZYTZLFIT30</t>
+          <t>BRBNBRLFI0C5</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2028,25 +2064,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LFSC19003W4</t>
+          <t>LFSC19005L1</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45582</v>
+        <v>45462</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BRZYTZLFIT30</t>
+          <t>BRBNBRLFI0F8</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2064,20 +2100,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LFSC190054C</t>
+          <t>LFSC19005L3</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45454</v>
+        <v>45464</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BRBNBRLFI013</t>
+          <t>BRBNBRLFI0G6</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2095,20 +2131,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSC19005L3</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45454</v>
+        <v>45464</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRBNBRLFI0G6</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2121,25 +2157,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSC19007G2</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45454</v>
+        <v>45582</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRABCBLFIM30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2147,61 +2183,65 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO BRADESCO S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSN1800DG1</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45454</v>
+        <v>46237</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>BRBBDCLTR2X9</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>407137-LFS</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO BRADESCO S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSN1800DIG</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45454</v>
+        <v>46237</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MANACA INFRA FIRF</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRBBDCLTROH4</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2209,61 +2249,65 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LFSC190054I</t>
+          <t>LFSN1800DS5</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45455</v>
+        <v>46251</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>BRBNBRLFI039</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>BRBSAFLNN8B3</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>335769-LFS</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LFSC190054I</t>
+          <t>LFSN1800E2G</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45455</v>
+        <v>45929</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>BRBNBRLFI039</t>
+          <t>BRABCBLFIM22</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2271,30 +2315,30 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LFSC190059S</t>
+          <t>LFSN1800HXO</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45455</v>
+        <v>46332</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BRBNBRLFI062</t>
+          <t>BRBSAFLNN7R1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2302,30 +2346,30 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LFSC19005FF</t>
+          <t>LFSN1900008</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45461</v>
+        <v>46395</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0C5</t>
+          <t>BRBSAFLFNBB5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2333,61 +2377,65 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LFSC19005FF</t>
+          <t>LFSN19001BC</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45461</v>
+        <v>46486</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0C5</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>BRBPACLFIVQ4</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>353997-N L</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LFSC19005L1</t>
+          <t>LFSN19001BH</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45462</v>
+        <v>46486</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0F8</t>
+          <t>BRBPACLFIVQ4</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2395,30 +2443,30 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LFSC19005L3</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45464</v>
+        <v>46904</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0G6</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2426,30 +2474,30 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LFSC19005L3</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45464</v>
+        <v>46904</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0G6</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2457,30 +2505,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LFSC19007G2</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45582</v>
+        <v>46904</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>BRABCBLFI7N9</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2493,30 +2541,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LFSN1800DG1</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>46237</v>
+        <v>46904</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>BRBBDCLTR2X9</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>407137-LFS</t>
+          <t>513453-LFS</t>
         </is>
       </c>
     </row>
@@ -2528,16 +2576,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LFSN1800DIG</t>
+          <t>LFSN19006KN</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>46089</v>
+        <v>46904</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2546,7 +2594,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>BRBBDCLTROH4</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2559,23 +2607,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LFSN1800DIG</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>46237</v>
+        <v>46195</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>BH INFRA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BRBMGBLFI489</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2586,32 +2638,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LFSN1800DS5</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>46251</v>
+        <v>46195</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>BORDEAUX INFRA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BRBSAFLNN8B3</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>335769-LFS</t>
-        </is>
-      </c>
+          <t>BRBMGBLFI489</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2621,25 +2669,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LFSN1800E2G</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45929</v>
+        <v>46195</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>BRZYTZLFIP00</t>
+          <t>BRBMGBLFI489</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2652,16 +2700,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LFSN1800E2I</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45929</v>
+        <v>46195</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2670,7 +2718,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>BRZYTZLFIP34</t>
+          <t>BRBMGBLFI489</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2683,25 +2731,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LFSN1800HXO</t>
+          <t>LFSN19009YU</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>46332</v>
+        <v>46199</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>BRBSAFLNN7R1</t>
+          <t>BRBMGBLFI6I3</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2714,16 +2762,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LFSN1900008</t>
+          <t>LFSN19009YU</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>46395</v>
+        <v>46199</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2732,7 +2780,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BRBSAFLFNBB5</t>
+          <t>BRBMGBLFI6I3</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2745,227 +2793,243 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LFSN19001BC</t>
+          <t>LFSN1900CR5</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>46486</v>
+        <v>47343</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BRBPACLFIVQ4</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
+          <t>BRBSAFLFNG47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LFSN19001BH</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>46486</v>
+        <v>46454</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BRBPACLFIVQ4</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>BRAGBKC00M66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>614522-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>46904</v>
+        <v>46454</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>BRAGBKC00M66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>353997-N L</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>46904</v>
+        <v>46454</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>HORIZONTE</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>BRAGBKC00M66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>353997-N L</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>46904</v>
+        <v>46083</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MANACA INFRA FIRF</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>BRBCXPLFIKS5</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>614522-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>46904</v>
+        <v>46083</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
+          <t>BRBCXPLFIKS5</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>513453-LFS</t>
+          <t>353997-N L</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LFSN19006KN</t>
+          <t>LFSC19002CD</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>46904</v>
+        <v>47217</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>BRBMGBLFI7Q4</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>609712-LFS</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2975,28 +3039,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LFSN1900971</t>
+          <t>LFSC19002CE</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>46195</v>
+        <v>47217</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BH FIRF INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>BRBMGBLFI489</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>BRBMGBLFI7P6</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>609711-LFS</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>Títulos Privados</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3006,434 +3074,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LFSN1900971</t>
+          <t>LFSC19002HS</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>46195</v>
+        <v>47217</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BORDEAUX INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>BRBMGBLFI489</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>LFSN</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>LFSN1900971</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>46195</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>FIRF GERAES 30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>BRBMGBLFI489</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>LFSN</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>LFSN1900971</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>46195</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>BRBMGBLFI489</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>LFSN</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>LFSN19009YU</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>46199</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>BH FIRF INFRA</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>BRBMGBLFI5U0</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>LFSN</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>LFSN19009YU</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>46199</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>BRBMGBLFI5U0</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>LFSN</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>BANCO SAFRA S.A.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>LFSN1900CR5</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>47343</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>FIRF GERAES 30</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>BRBSAFLFNG47</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>AGIBANK</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>CDB3251WXH0</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>46454</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>BMG SEG</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>AGIBANK</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CDB3251WXH0</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>46454</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>JERA2026</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>AGIBANK</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>CDB3251WXH0</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>46454</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>REAL FIM</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>BANCO XP</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>LF00240072E</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>46083</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>BMG SEG</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>BANCO XP</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>LF00240072E</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>46083</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>JERA2026</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>LFSC19002CD</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>47217</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>JERA2026</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>BRBMGBLFI7Q4</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>609712-LFS</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>LFSC19002CE</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>47217</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>JERA2026</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>BRBMGBLFI7P6</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>609711-LFS</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Títulos Privados</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>BANCO BMG S.A.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>LFSC19002HS</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>47217</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>JERA2026</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>BRBMGBLFI7R2</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>609713-LFS</t>
         </is>

--- a/Dados/ativos_mapeados_para_controle.xlsx
+++ b/Dados/ativos_mapeados_para_controle.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,25 +513,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>CDB3239C4TL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>46454</v>
+        <v>46223</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>BBRASIL FIM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BRAGBKC00M66</t>
+          <t>BRBPACC0F3U7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -557,7 +557,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TOPAZIO INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -668,25 +668,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PARANA BANCO S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CDB3253PPYA</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>46091</v>
+        <v>46454</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>TOPAZIO INFRA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BRPRBCC059P8</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -782,11 +782,7 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>606488-CDB</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -809,7 +805,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -817,7 +813,11 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>606488-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -848,11 +848,7 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>606488-CDB</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -862,28 +858,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>PARANA BANCO S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CDB424EERW3</t>
+          <t>CDB3253PPYA</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>46146</v>
+        <v>46091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BRBVKWC00WA0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>BRPRBCC059P8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>606488-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -893,32 +893,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CDB7257QUDF</t>
+          <t>CDB424EERW3</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>46213</v>
+        <v>46146</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BRBIDIC002H4</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>613312-CDB</t>
-        </is>
-      </c>
+          <t>BRBVKWC00WA0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -928,25 +924,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CDB7257QUDG</t>
+          <t>CDB424EERW3</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>46213</v>
+        <v>46146</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BBRASIL FIM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BRBIDIC002H4</t>
+          <t>BRBVKWC00WA0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -964,7 +960,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CDB7257QUDH</t>
+          <t>CDB7257QUDF</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -972,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,7 +976,11 @@
           <t>BRBIDIC002H4</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>613312-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CDB7257QUDI</t>
+          <t>CDB7257QUDG</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1011,11 +1011,7 @@
           <t>BRBIDIC002H4</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>613315-CDB</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1025,25 +1021,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CDB925CDN0L</t>
+          <t>CDB7257QUDH</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>46013</v>
+        <v>46213</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BRBVKWC01543</t>
+          <t>BRBIDIC002H4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1051,17 +1047,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>CDB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HAPV21</t>
+          <t>CDB7257QUDI</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1069,46 +1065,50 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>BMG SEG</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BRBIDIC002H4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>613315-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>CDB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HAPV21</t>
+          <t>CDB925CDN0L</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>46213</v>
+        <v>46013</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BRHAPVDBS014</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>362409-HAP</t>
-        </is>
-      </c>
+          <t>BRBVKWC01543</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1118,27 +1118,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>HAPV21</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>47196</v>
+        <v>46213</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
+          <t>FIRF GERAES</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1149,28 +1145,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>HAPV21</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>47196</v>
+        <v>46213</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>BRHAPVDBS014</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>362409-HAP</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,39 +1263,35 @@
           <t>BRKLBNDBS004</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>353017-KLB</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LF00240072E</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>46083</v>
+        <v>47196</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BRBCXPLFIKS5</t>
+          <t>BRKLBNDBS004</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1303,33 +1299,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LF0024007Y4</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>46097</v>
+        <v>47196</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BRBCXPLFIO68</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>BRKLBNDBS004</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>353017-KLB</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LF0024008OB</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>46104</v>
+        <v>46083</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1357,14 +1357,10 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BRBCXPLFIO76</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
+          <t>BRBCXPLFIKS5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1379,11 +1375,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LF0024008OB</t>
+          <t>LF0024007Y4</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>46104</v>
+        <v>46097</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1392,7 +1388,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BRBCXPLFIO76</t>
+          <t>BRBCXPLFIO68</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1405,28 +1401,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LF002400KBT</t>
+          <t>LF0024008OB</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>46234</v>
+        <v>46104</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>BRBCXPLFIO76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>614522-CDB</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1436,16 +1436,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LF002400KBU</t>
+          <t>LF0024008OB</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>46234</v>
+        <v>46104</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBCXPLFIO76</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LF002400KBW</t>
+          <t>LF002400KBT</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LF002400KBX</t>
+          <t>LF002400KBU</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LF002400KBY</t>
+          <t>LF002400KBW</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LF002400KC0</t>
+          <t>LF002400KBX</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1581,11 +1581,7 @@
           <t>BRBMEBLFI8V4</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>567797-LF0</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1600,7 +1596,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LF002400KC1</t>
+          <t>LF002400KBY</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1608,7 +1604,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1616,11 +1612,7 @@
           <t>BRBMEBLFI8V4</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>567798-LF0</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1635,7 +1627,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LF002400KC2</t>
+          <t>LF002400KC0</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1643,7 +1635,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TOPAZIO INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1651,66 +1643,74 @@
           <t>BRBMEBLFI8V4</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>567797-LF0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LFSC19003FD</t>
+          <t>LF002400KC1</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45582</v>
+        <v>46234</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BRABCBLFN7I2</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>567798-LF0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LFSC19003W3</t>
+          <t>LF002400KC2</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45582</v>
+        <v>46234</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>TOPAZIO INFRA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BRABCBLFN7I2</t>
+          <t>BRBMEBLFI8V4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LFSC19003W4</t>
+          <t>LFSC19003FD</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1754,16 +1754,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LFSC190054C</t>
+          <t>LFSC19003W3</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45454</v>
+        <v>45582</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BRBNBRLFI013</t>
+          <t>BRABCBLFN7I2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1785,25 +1785,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSC19003W4</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45454</v>
+        <v>45582</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRABCBLFN7I2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSC190054C</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRBNBRLFI013</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1914,20 +1914,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LFSC190054I</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BRBNBRLFI039</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1945,20 +1945,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LFSC190054I</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>BRBNBRLFI039</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LFSC190059S</t>
+          <t>LFSC190054I</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BRBNBRLFI062</t>
+          <t>BRBNBRLFI039</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2007,20 +2007,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LFSC19005FF</t>
+          <t>LFSC190054I</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45461</v>
+        <v>45455</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0C5</t>
+          <t>BRBNBRLFI039</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2038,11 +2038,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LFSC19005FF</t>
+          <t>LFSC190059S</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45461</v>
+        <v>45455</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0C5</t>
+          <t>BRBNBRLFI062</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2069,20 +2069,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LFSC19005L1</t>
+          <t>LFSC19005FF</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0F8</t>
+          <t>BRBNBRLFI0C5</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2100,20 +2100,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LFSC19005L3</t>
+          <t>LFSC19005FF</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0G6</t>
+          <t>BRBNBRLFI0C5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2131,20 +2131,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LFSC19005L3</t>
+          <t>LFSC19005L1</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45464</v>
+        <v>45462</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0G6</t>
+          <t>BRBNBRLFI0F8</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2157,25 +2157,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LFSC19007G2</t>
+          <t>LFSC19005L3</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45582</v>
+        <v>45464</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BRABCBLFIM30</t>
+          <t>BRBNBRLFI0G6</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2183,65 +2183,61 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LFSN1800DG1</t>
+          <t>LFSC19005L3</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>46237</v>
+        <v>45464</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BRBBDCLTR2X9</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>407137-LFS</t>
-        </is>
-      </c>
+          <t>BRBNBRLFI0G6</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LFSN1800DIG</t>
+          <t>LFSC19007G2</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>46237</v>
+        <v>45582</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BRBBDCLTROH4</t>
+          <t>BRABCBLFIM30</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2254,16 +2250,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BRADESCO S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LFSN1800DS5</t>
+          <t>LFSN1800DG1</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>46251</v>
+        <v>46237</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2272,12 +2268,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>BRBSAFLNN8B3</t>
+          <t>BRBBDCLTR2X9</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>335769-LFS</t>
+          <t>407137-LFS</t>
         </is>
       </c>
     </row>
@@ -2289,16 +2285,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO BRADESCO S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LFSN1800E2G</t>
+          <t>LFSN1800DIG</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45929</v>
+        <v>46237</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2307,7 +2303,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>BRABCBLFIM22</t>
+          <t>BRBBDCLTROH4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2325,23 +2321,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LFSN1800HXO</t>
+          <t>LFSN1800DS5</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>46332</v>
+        <v>46251</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BRBSAFLNN7R1</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>BRBSAFLNN8B3</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>335769-LFS</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2351,16 +2351,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LFSN1900008</t>
+          <t>LFSN1800E2G</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>46395</v>
+        <v>45929</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>BRBSAFLFNBB5</t>
+          <t>BRABCBLFIM22</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2382,32 +2382,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LFSN19001BC</t>
+          <t>LFSN1800HXO</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>46486</v>
+        <v>46332</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>BRBPACLFIVQ4</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
+          <t>BRBSAFLNN7R1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2417,25 +2413,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LFSN19001BH</t>
+          <t>LFSN1900008</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>46486</v>
+        <v>46395</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BRBPACLFIVQ4</t>
+          <t>BRBSAFLFNBB5</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2453,23 +2449,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>LFSN19001BC</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>46904</v>
+        <v>46486</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>BRBPACLFIVQ4</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>353997-N L</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2484,20 +2484,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>LFSN19001BH</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>46904</v>
+        <v>46486</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
+          <t>BRBPACLFIVQ4</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2562,11 +2562,7 @@
           <t>BRBPACLFIWC2</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>513453-LFS</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2581,7 +2577,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LFSN19006KN</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -2589,7 +2585,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2607,28 +2603,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LFSN1900971</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>46195</v>
+        <v>46904</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BRBMGBLFI489</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>BRBPACLFIWC2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>513453-LFS</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2638,25 +2638,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LFSN1900971</t>
+          <t>LFSN19006KN</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>46195</v>
+        <v>46904</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BORDEAUX INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BRBMGBLFI489</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BORDEAUX INFRA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2736,20 +2736,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LFSN19009YU</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>46199</v>
+        <v>46195</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>BRBMGBLFI6I3</t>
+          <t>BRBMGBLFI489</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2767,11 +2767,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LFSN19009YU</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>46199</v>
+        <v>46195</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BRBMGBLFI6I3</t>
+          <t>BRBMGBLFI489</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2793,25 +2793,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LFSN1900CR5</t>
+          <t>LFSN19009YU</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>47343</v>
+        <v>46199</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BRBSAFLFNG47</t>
+          <t>BRBMGBLFI6I3</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2819,72 +2819,64 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Títulos Privados</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>LFSN19009YU</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>46454</v>
+        <v>46199</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BRAGBKC00M66</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
+          <t>BRBMGBLFI6I3</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Títulos Privados</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>LFSN1900CR5</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>46454</v>
+        <v>47343</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>BRAGBKC00M66</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
+          <t>BRBSAFLFNG47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2907,7 +2899,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2917,7 +2909,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>353997-N L</t>
+          <t>614522-CDB</t>
         </is>
       </c>
     </row>
@@ -2929,30 +2921,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LF00240072E</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>46083</v>
+        <v>46454</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>BRBCXPLFIKS5</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>614522-CDB</t>
+          <t>353997-N L</t>
         </is>
       </c>
     </row>
@@ -2964,25 +2956,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LF00240072E</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>46083</v>
+        <v>46454</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>BRBCXPLFIKS5</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2999,30 +2991,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LFSC19002CD</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>47217</v>
+        <v>46083</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>BRBMGBLFI7Q4</t>
+          <t>BRBCXPLFIKS5</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>609712-LFS</t>
+          <t>614522-CDB</t>
         </is>
       </c>
     </row>
@@ -3034,16 +3026,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LFSC19002CE</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>47217</v>
+        <v>46083</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3052,12 +3044,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>BRBMGBLFI7P6</t>
+          <t>BRBCXPLFIKS5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>609711-LFS</t>
+          <t>353997-N L</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3066,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LFSC19002HS</t>
+          <t>LFSC19002CD</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -3087,10 +3079,80 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>BRBMGBLFI7Q4</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>609712-LFS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Títulos Privados</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BANCO BMG S.A.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>LFSC19002CE</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>47217</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>JERA2026</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BRBMGBLFI7P6</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>609711-LFS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Títulos Privados</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BANCO BMG S.A.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LFSC19002HS</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>47217</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>JERA2026</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>BRBMGBLFI7R2</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>609713-LFS</t>
         </is>
